--- a/Стратегия тестирования.xlsx
+++ b/Стратегия тестирования.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7776691F-FEA3-4ACF-B31C-C8FA21E7A68A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7895105B-E6BA-4489-AB7B-25E1AEF5F74A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="94">
   <si>
     <t>Тест-план по системному тестированию  НЕкрестики-нолики</t>
   </si>
@@ -65,16 +65,7 @@
     <t>Ивасюк,Игумнова</t>
   </si>
   <si>
-    <t>игра</t>
-  </si>
-  <si>
     <t>Полное покрытие</t>
-  </si>
-  <si>
-    <t>Вывод статистики в бд</t>
-  </si>
-  <si>
-    <t>Проверить корректность отображения данных в бд</t>
   </si>
   <si>
     <t>Ивасюк</t>
@@ -102,27 +93,15 @@
     <t>Регистрация</t>
   </si>
   <si>
-    <t>Тестирование механик игры</t>
-  </si>
-  <si>
     <t>сам ход(заполнение пустых клеток на поле)</t>
   </si>
   <si>
     <t>завершение игры,если получилась прямая или диагональ в поле 3x3</t>
   </si>
   <si>
-    <t>заполнить клетки на поле</t>
-  </si>
-  <si>
     <t>заполнить прямую и диагональ в поле 3x3</t>
   </si>
   <si>
-    <t>добавление баллов за каждую прямую или диагональ в три фигуры,также в 5 на поле 5x5</t>
-  </si>
-  <si>
-    <t>заполнить прямую и диагональ из 3 фигур,проверить начисление баллов,далее прямую или диагональ из 5 фигур в поле 5x5</t>
-  </si>
-  <si>
     <t>провести 10 партий и отследить каждый из параметров статистики</t>
   </si>
   <si>
@@ -273,7 +252,61 @@
     <t>Список значений:</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>JiraTask</t>
+  </si>
+  <si>
+    <t>Настройка игры и статистика</t>
+  </si>
+  <si>
+    <t>Процесс игры</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>выбор размерности поля</t>
+  </si>
+  <si>
+    <t>ввести значение число</t>
+  </si>
+  <si>
+    <t>Настройка игры</t>
+  </si>
+  <si>
+    <t>Проверка статистики</t>
+  </si>
+  <si>
+    <t>сыграть партии с разными значениями статистики</t>
+  </si>
+  <si>
+    <t>заполнить клетки на поле и проверить поле у обоих клиентов</t>
+  </si>
+  <si>
+    <t>добавление баллов за каждую прямую или диагональ в три фигуры,также в 4 на поле 4x4</t>
+  </si>
+  <si>
+    <t>заполнить прямую и диагональ из 3 фигур,проверить начисление баллов,далее прямую или диагональ из 4 фигур в поле 4x4</t>
+  </si>
+  <si>
+    <t>добавление баллов за каждую прямую или диагональ в три фигуры,также в X на поле XxX</t>
+  </si>
+  <si>
+    <t>заполнить прямую и диагональ из 3 фигур,проверить начисление баллов,далее прямую или диагональ из X фигур в поле XxX</t>
+  </si>
+  <si>
+    <t>v:   l:   d:</t>
+  </si>
+  <si>
+    <t>Проверить правила заполнения полей логин/пароль, работу кнопок отмена и авторизации</t>
+  </si>
+  <si>
+    <t>1- самый высокий приоритет</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -409,20 +442,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor theme="4"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -676,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -688,20 +721,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -717,169 +740,59 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,18 +807,156 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1221,18 +1272,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
@@ -1243,128 +1294,137 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C7" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D7" s="85" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E7" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F7" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G7" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H7" s="85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="I7" s="49"/>
+    </row>
+    <row r="8" spans="1:9" s="96" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="94" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4">
         <v>0.5</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4">
-        <v>300</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4">
-        <f>SUM(E5:E7)</f>
-        <v>301</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4">
+        <f>SUM(E8:E10)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1377,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C25528-3431-4319-8C47-E5AB10F2B840}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,234 +1452,462 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="75"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="78">
+        <v>44348</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="27" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26">
-        <v>44348</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="C7" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="87">
+        <v>1</v>
+      </c>
+      <c r="D14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="88">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="88">
+        <v>3</v>
+      </c>
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="88">
+        <v>4</v>
+      </c>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="88">
+        <v>5</v>
+      </c>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="88">
+        <v>6</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="88">
+        <v>7</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="88">
         <v>8</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="37" t="s">
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="88">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="88">
+        <v>10</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="88">
+        <v>552</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="14"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="14"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="1:4" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C45" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+    </row>
+    <row r="49" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:10" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="37" t="s">
+      <c r="C49" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31"/>
-      <c r="B21" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-    </row>
-    <row r="25" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31"/>
-      <c r="B25" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="D49" s="14"/>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="1:4" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:4" ht="112.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+    </row>
+    <row r="55" spans="1:4" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D55" s="15"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1635,7 +1923,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,285 +1937,285 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="76">
+        <v>26</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="34">
         <v>1</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="11"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="70" t="s">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="75" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="36">
+        <v>44337</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65">
+        <v>2</v>
+      </c>
+      <c r="E6" s="65">
+        <v>1</v>
+      </c>
+      <c r="F6" s="65">
+        <v>0</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="D7" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="E7" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="78">
-        <v>44337</v>
-      </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="F7" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="39">
+      <c r="G7" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
+        <v>1</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
         <v>2</v>
       </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="46" t="s">
+      <c r="B9" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="C9" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>3</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="C10" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="79">
-        <v>1</v>
-      </c>
-      <c r="B8" s="69" t="s">
+      <c r="B14" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C14" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79">
-        <v>2</v>
-      </c>
-      <c r="B9" s="69" t="s">
+      <c r="D14" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="E14" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="79">
-        <v>3</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1941,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E993A3-F6CA-43E1-B34D-552302CDD2F4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,241 +2244,241 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>19</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="65">
+        <v>27</v>
+      </c>
+      <c r="D1" s="23">
         <v>2</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="11"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="62" t="s">
-        <v>74</v>
+        <v>28</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="65" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="11"/>
+        <v>30</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="47">
+        <v>44337</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65">
+        <v>3</v>
+      </c>
+      <c r="E6" s="65">
+        <v>0</v>
+      </c>
+      <c r="F6" s="65">
+        <v>0</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="67"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="63" t="s">
+      <c r="D7" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="91">
-        <v>44337</v>
-      </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="F7" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="39">
+      <c r="G7" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>1</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="E6" s="39">
-        <v>0</v>
-      </c>
-      <c r="F6" s="39">
-        <v>0</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="39" t="s">
+      <c r="B10" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="46" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="64">
-        <v>1</v>
-      </c>
-      <c r="B8" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="64">
-        <v>2</v>
-      </c>
-      <c r="B9" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="64">
-        <v>3</v>
-      </c>
-      <c r="B10" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="11"/>
+      <c r="C10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2202,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FC79DE-40B0-414C-BDCC-BE048597F5E8}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2217,26 +2505,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="52"/>
+      <c r="A1" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="A2" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>66</v>
+      <c r="A3" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="56">
         <v>44348</v>
@@ -2245,80 +2533,128 @@
       <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="53">
+      <c r="A4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="50">
         <v>3</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52"/>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
+      <c r="A9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
